--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H2">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I2">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J2">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N2">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O2">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P2">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q2">
-        <v>5.518432328475001</v>
+        <v>2.898899614464</v>
       </c>
       <c r="R2">
-        <v>22.0737293139</v>
+        <v>11.595598457856</v>
       </c>
       <c r="S2">
-        <v>0.007551633656522351</v>
+        <v>0.005626657692580902</v>
       </c>
       <c r="T2">
-        <v>0.005295602524181043</v>
+        <v>0.003307844741070928</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H3">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I3">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J3">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>26.240334</v>
       </c>
       <c r="O3">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P3">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q3">
-        <v>15.308938859775</v>
+        <v>14.576050704544</v>
       </c>
       <c r="R3">
-        <v>91.85363315865</v>
+        <v>87.456304227264</v>
       </c>
       <c r="S3">
-        <v>0.02094933688732349</v>
+        <v>0.02829157912711512</v>
       </c>
       <c r="T3">
-        <v>0.02203616455982559</v>
+        <v>0.0249484213396213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H4">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I4">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J4">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N4">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O4">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P4">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q4">
-        <v>2.0805440712375</v>
+        <v>3.971801053546666</v>
       </c>
       <c r="R4">
-        <v>12.483264427425</v>
+        <v>23.83080632128</v>
       </c>
       <c r="S4">
-        <v>0.002847096004269922</v>
+        <v>0.007709119984643334</v>
       </c>
       <c r="T4">
-        <v>0.002994800093442458</v>
+        <v>0.006798149112512569</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H5">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I5">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J5">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N5">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O5">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P5">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q5">
-        <v>19.0970461402875</v>
+        <v>17.054562981064</v>
       </c>
       <c r="R5">
-        <v>76.38818456115</v>
+        <v>68.21825192425599</v>
       </c>
       <c r="S5">
-        <v>0.0261331276328269</v>
+        <v>0.03310228043503743</v>
       </c>
       <c r="T5">
-        <v>0.01832592296603469</v>
+        <v>0.01946043463757757</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H6">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I6">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J6">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N6">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O6">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P6">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q6">
-        <v>1.3176878881375</v>
+        <v>1.294915084848</v>
       </c>
       <c r="R6">
-        <v>7.906127328824999</v>
+        <v>7.769490509088</v>
       </c>
       <c r="S6">
-        <v>0.00180317445472795</v>
+        <v>0.002513382625271149</v>
       </c>
       <c r="T6">
-        <v>0.001896721086121952</v>
+        <v>0.002216381363557423</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H7">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I7">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J7">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N7">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O7">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P7">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q7">
-        <v>1.22664345045</v>
+        <v>5.020559549488</v>
       </c>
       <c r="R7">
-        <v>7.3598607027</v>
+        <v>30.123357296928</v>
       </c>
       <c r="S7">
-        <v>0.001678585767405934</v>
+        <v>0.009744721710693089</v>
       </c>
       <c r="T7">
-        <v>0.001765668879988312</v>
+        <v>0.008593207964228499</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I8">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J8">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N8">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O8">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P8">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q8">
-        <v>10.084156200144</v>
+        <v>5.563681209216</v>
       </c>
       <c r="R8">
-        <v>60.50493720086401</v>
+        <v>33.382087255296</v>
       </c>
       <c r="S8">
-        <v>0.0137995446579446</v>
+        <v>0.01079890090664324</v>
       </c>
       <c r="T8">
-        <v>0.01451544927501427</v>
+        <v>0.009522816970140124</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I9">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J9">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>26.240334</v>
       </c>
       <c r="O9">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P9">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q9">
         <v>27.974925038736</v>
@@ -1013,10 +1013,10 @@
         <v>251.774325348624</v>
       </c>
       <c r="S9">
-        <v>0.03828195633950785</v>
+        <v>0.05429830214996317</v>
       </c>
       <c r="T9">
-        <v>0.06040197077167949</v>
+        <v>0.07182297499072898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I10">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J10">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N10">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O10">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P10">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q10">
-        <v>3.801900638952</v>
+        <v>7.62283549872</v>
       </c>
       <c r="R10">
-        <v>34.217105750568</v>
+        <v>68.60551948848</v>
       </c>
       <c r="S10">
-        <v>0.005202666104233593</v>
+        <v>0.01479564376225637</v>
       </c>
       <c r="T10">
-        <v>0.0082088617200164</v>
+        <v>0.01957090939921765</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I11">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J11">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N11">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O11">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P11">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q11">
-        <v>34.89715643450401</v>
+        <v>32.731782472116</v>
       </c>
       <c r="R11">
-        <v>209.382938607024</v>
+        <v>196.390694832696</v>
       </c>
       <c r="S11">
-        <v>0.04775460227860612</v>
+        <v>0.06353118773747843</v>
       </c>
       <c r="T11">
-        <v>0.05023205650662642</v>
+        <v>0.05602383779144025</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I12">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J12">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N12">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O12">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P12">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q12">
-        <v>2.407888635048</v>
+        <v>2.485251537912</v>
       </c>
       <c r="R12">
-        <v>21.670997715432</v>
+        <v>22.367263841208</v>
       </c>
       <c r="S12">
-        <v>0.003295046813160991</v>
+        <v>0.004823781966791775</v>
       </c>
       <c r="T12">
-        <v>0.005198985118074154</v>
+        <v>0.006380648341540274</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I13">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J13">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N13">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O13">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P13">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q13">
-        <v>2.241517775328</v>
+        <v>9.635653710072003</v>
       </c>
       <c r="R13">
-        <v>20.173659977952</v>
+        <v>86.72088339064801</v>
       </c>
       <c r="S13">
-        <v>0.003067378571721614</v>
+        <v>0.01870244999182107</v>
       </c>
       <c r="T13">
-        <v>0.004839766003379408</v>
+        <v>0.02473862984367432</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H14">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I14">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J14">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N14">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O14">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P14">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q14">
-        <v>8.086148353452668</v>
+        <v>4.552531215696</v>
       </c>
       <c r="R14">
-        <v>48.51689012071601</v>
+        <v>27.315187294176</v>
       </c>
       <c r="S14">
-        <v>0.01106539437703691</v>
+        <v>0.008836295902659892</v>
       </c>
       <c r="T14">
-        <v>0.01163945440007229</v>
+        <v>0.007792128967797482</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H15">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I15">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J15">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>26.240334</v>
       </c>
       <c r="O15">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P15">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q15">
-        <v>22.43215887876734</v>
+        <v>22.890729124566</v>
       </c>
       <c r="R15">
-        <v>201.889429908906</v>
+        <v>206.016562121094</v>
       </c>
       <c r="S15">
-        <v>0.03069702333817855</v>
+        <v>0.04443006459240207</v>
       </c>
       <c r="T15">
-        <v>0.04843432477709317</v>
+        <v>0.05876978269492229</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H16">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I16">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J16">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N16">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O16">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P16">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q16">
-        <v>3.048617254779666</v>
+        <v>6.23745237282</v>
       </c>
       <c r="R16">
-        <v>27.437555293017</v>
+        <v>56.13707135538</v>
       </c>
       <c r="S16">
-        <v>0.004171844338519045</v>
+        <v>0.01210666599164864</v>
       </c>
       <c r="T16">
-        <v>0.006582412287513295</v>
+        <v>0.01601406921228897</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H17">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I17">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J17">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N17">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O17">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P17">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q17">
-        <v>27.982865243501</v>
+        <v>26.7830696702835</v>
       </c>
       <c r="R17">
-        <v>167.897191461006</v>
+        <v>160.698418021701</v>
       </c>
       <c r="S17">
-        <v>0.03829282201910197</v>
+        <v>0.05198495464945406</v>
       </c>
       <c r="T17">
-        <v>0.0402794098930953</v>
+        <v>0.04584199934858616</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H18">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I18">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J18">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N18">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O18">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P18">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q18">
-        <v>1.930805546359222</v>
+        <v>2.033578988397</v>
       </c>
       <c r="R18">
-        <v>17.377249917233</v>
+        <v>18.302210895573</v>
       </c>
       <c r="S18">
-        <v>0.002642188085346271</v>
+        <v>0.003947102135390955</v>
       </c>
       <c r="T18">
-        <v>0.004168892678550529</v>
+        <v>0.005221021776575564</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H19">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I19">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J19">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N19">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O19">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P19">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q19">
-        <v>1.797398305665334</v>
+        <v>7.884458625357001</v>
       </c>
       <c r="R19">
-        <v>16.176584750988</v>
+        <v>70.96012762821302</v>
       </c>
       <c r="S19">
-        <v>0.002459628519715764</v>
+        <v>0.01530344464321972</v>
       </c>
       <c r="T19">
-        <v>0.003880846857445917</v>
+        <v>0.02024260204023196</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H20">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I20">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J20">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N20">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O20">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P20">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q20">
-        <v>55.07490762094501</v>
+        <v>8.323335363552001</v>
       </c>
       <c r="R20">
-        <v>220.29963048378</v>
+        <v>33.293341454208</v>
       </c>
       <c r="S20">
-        <v>0.07536660799012129</v>
+        <v>0.01615528827476137</v>
       </c>
       <c r="T20">
-        <v>0.05285102769342321</v>
+        <v>0.009497500697548587</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H21">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I21">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J21">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>26.240334</v>
       </c>
       <c r="O21">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P21">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q21">
-        <v>152.785853534205</v>
+        <v>41.850831151492</v>
       </c>
       <c r="R21">
-        <v>916.7151212052299</v>
+        <v>251.104986908952</v>
       </c>
       <c r="S21">
-        <v>0.2090779998942636</v>
+        <v>0.08123092633650465</v>
       </c>
       <c r="T21">
-        <v>0.2199247277510281</v>
+        <v>0.07163203463989563</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H22">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I22">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J22">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N22">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O22">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P22">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q22">
-        <v>20.7641891218725</v>
+        <v>11.40385544950667</v>
       </c>
       <c r="R22">
-        <v>124.585134731235</v>
+        <v>68.42313269704</v>
       </c>
       <c r="S22">
-        <v>0.02841450979004027</v>
+        <v>0.02213446463268146</v>
       </c>
       <c r="T22">
-        <v>0.02988862210712675</v>
+        <v>0.01951888041674656</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H23">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I23">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J23">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N23">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O23">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P23">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q23">
-        <v>190.5918183651825</v>
+        <v>48.967148245477</v>
       </c>
       <c r="R23">
-        <v>762.36727346073</v>
+        <v>195.868592981908</v>
       </c>
       <c r="S23">
-        <v>0.260813126727613</v>
+        <v>0.09504343647653556</v>
       </c>
       <c r="T23">
-        <v>0.1828958759202238</v>
+        <v>0.05587489922067915</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H24">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I24">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J24">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N24">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O24">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P24">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q24">
-        <v>13.1507526762525</v>
+        <v>3.717966798414</v>
       </c>
       <c r="R24">
-        <v>78.904516057515</v>
+        <v>22.307800790484</v>
       </c>
       <c r="S24">
-        <v>0.01799599244991261</v>
+        <v>0.007216437017231634</v>
       </c>
       <c r="T24">
-        <v>0.01892960398587195</v>
+        <v>0.006363685479266255</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H25">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I25">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J25">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N25">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O25">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P25">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q25">
-        <v>12.24211346559</v>
+        <v>14.415056193934</v>
       </c>
       <c r="R25">
-        <v>73.45268079354</v>
+        <v>86.49033716360401</v>
       </c>
       <c r="S25">
-        <v>0.01675257583511268</v>
+        <v>0.02797909469437821</v>
       </c>
       <c r="T25">
-        <v>0.01762168033714146</v>
+        <v>0.02467286255037997</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H26">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I26">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J26">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N26">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O26">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P26">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q26">
-        <v>3.445421296234001</v>
+        <v>8.522587801696</v>
       </c>
       <c r="R26">
-        <v>20.672527777404</v>
+        <v>51.135526810176</v>
       </c>
       <c r="S26">
-        <v>0.004714846150651208</v>
+        <v>0.01654202993985892</v>
       </c>
       <c r="T26">
-        <v>0.004959446984351986</v>
+        <v>0.01458729224331965</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H27">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I27">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J27">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>26.240334</v>
       </c>
       <c r="O27">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P27">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q27">
-        <v>9.558102886946001</v>
+        <v>42.85269876598267</v>
       </c>
       <c r="R27">
-        <v>86.02292598251401</v>
+        <v>385.674288893844</v>
       </c>
       <c r="S27">
-        <v>0.01307967320376861</v>
+        <v>0.08317551458367783</v>
       </c>
       <c r="T27">
-        <v>0.02063734756788836</v>
+        <v>0.1100202523328542</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H28">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I28">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J28">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N28">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O28">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P28">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q28">
-        <v>1.298983193797</v>
+        <v>11.67685249976445</v>
       </c>
       <c r="R28">
-        <v>11.690848744173</v>
+        <v>105.09167249788</v>
       </c>
       <c r="S28">
-        <v>0.001777578236289639</v>
+        <v>0.02266434188169714</v>
       </c>
       <c r="T28">
-        <v>0.002804695447654876</v>
+        <v>0.02997921473961907</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H29">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I29">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J29">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N29">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O29">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P29">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q29">
-        <v>11.923199479569</v>
+        <v>50.13937347138766</v>
       </c>
       <c r="R29">
-        <v>71.53919687741401</v>
+        <v>300.836240828326</v>
       </c>
       <c r="S29">
-        <v>0.01631616175099952</v>
+        <v>0.09731868259126766</v>
       </c>
       <c r="T29">
-        <v>0.01716262558875168</v>
+        <v>0.08581873378629575</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H30">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I30">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J30">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N30">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O30">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P30">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q30">
-        <v>0.8226955847863333</v>
+        <v>3.806971256022</v>
       </c>
       <c r="R30">
-        <v>7.404260263077</v>
+        <v>34.262741304198</v>
       </c>
       <c r="S30">
-        <v>0.001125808073261572</v>
+        <v>0.007389191400851999</v>
       </c>
       <c r="T30">
-        <v>0.001776320565558131</v>
+        <v>0.009774038748382168</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H31">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I31">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J31">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N31">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O31">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P31">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q31">
-        <v>0.7658521869080001</v>
+        <v>14.76013841964867</v>
       </c>
       <c r="R31">
-        <v>6.892669682172</v>
+        <v>132.841245776838</v>
       </c>
       <c r="S31">
-        <v>0.001048021395629568</v>
+        <v>0.02864888662170211</v>
       </c>
       <c r="T31">
-        <v>0.001653587323111339</v>
+        <v>0.03789525981235744</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H32">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I32">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J32">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N32">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O32">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P32">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q32">
-        <v>8.312011837310003</v>
+        <v>3.464345613008</v>
       </c>
       <c r="R32">
-        <v>49.87207102386001</v>
+        <v>20.786073678048</v>
       </c>
       <c r="S32">
-        <v>0.01137447459854753</v>
+        <v>0.006724167610334625</v>
       </c>
       <c r="T32">
-        <v>0.01196456935048949</v>
+        <v>0.00592958653693817</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H33">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I33">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J33">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>26.240334</v>
       </c>
       <c r="O33">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P33">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q33">
-        <v>23.05873723639001</v>
+        <v>17.41918797785133</v>
       </c>
       <c r="R33">
-        <v>207.52863512751</v>
+        <v>156.772691800662</v>
       </c>
       <c r="S33">
-        <v>0.03155445710418786</v>
+        <v>0.03381000416332531</v>
       </c>
       <c r="T33">
-        <v>0.04978719945292827</v>
+        <v>0.04472211813828517</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H34">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I34">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J34">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N34">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O34">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P34">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q34">
-        <v>3.133771679855</v>
+        <v>4.746522262082222</v>
       </c>
       <c r="R34">
-        <v>28.203945118695</v>
+        <v>42.71870035873999</v>
       </c>
       <c r="S34">
-        <v>0.004288372907526324</v>
+        <v>0.009212825399574767</v>
       </c>
       <c r="T34">
-        <v>0.006766273194641998</v>
+        <v>0.01218624712132109</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H35">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I35">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J35">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N35">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O35">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P35">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q35">
-        <v>28.764486746835</v>
+        <v>20.38114743622883</v>
       </c>
       <c r="R35">
-        <v>172.58692048101</v>
+        <v>122.286884617373</v>
       </c>
       <c r="S35">
-        <v>0.03936242274987143</v>
+        <v>0.03955905869713468</v>
       </c>
       <c r="T35">
-        <v>0.04140450028823843</v>
+        <v>0.03488444599506398</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H36">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I36">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J36">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N36">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O36">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P36">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q36">
-        <v>1.984737090561667</v>
+        <v>1.547495253381</v>
       </c>
       <c r="R36">
-        <v>17.862633815055</v>
+        <v>13.927457280429</v>
       </c>
       <c r="S36">
-        <v>0.00271599007114682</v>
+        <v>0.003003631456647933</v>
       </c>
       <c r="T36">
-        <v>0.004285338801357897</v>
+        <v>0.003973047746435617</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H37">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I37">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J37">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N37">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O37">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P37">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q37">
-        <v>1.84760349922</v>
+        <v>5.999846756794335</v>
       </c>
       <c r="R37">
-        <v>16.62843149298</v>
+        <v>53.99862081114901</v>
       </c>
       <c r="S37">
-        <v>0.002528331224906752</v>
+        <v>0.01164548221676362</v>
       </c>
       <c r="T37">
-        <v>0.003989247242057368</v>
+        <v>0.015404039258899</v>
       </c>
     </row>
   </sheetData>
